--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>294.7519835</v>
+        <v>175.714592</v>
       </c>
       <c r="H2">
-        <v>589.503967</v>
+        <v>351.429184</v>
       </c>
       <c r="I2">
-        <v>0.54796785899033</v>
+        <v>0.6561402835253665</v>
       </c>
       <c r="J2">
-        <v>0.4638809894457476</v>
+        <v>0.6173104109564377</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N2">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O2">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P2">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q2">
-        <v>69296.66764005534</v>
+        <v>38702.40710806776</v>
       </c>
       <c r="R2">
-        <v>277186.6705602214</v>
+        <v>154809.628432271</v>
       </c>
       <c r="S2">
-        <v>0.2290919521065334</v>
+        <v>0.3365676185538264</v>
       </c>
       <c r="T2">
-        <v>0.1503831692269904</v>
+        <v>0.2554260184985516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>294.7519835</v>
+        <v>175.714592</v>
       </c>
       <c r="H3">
-        <v>589.503967</v>
+        <v>351.429184</v>
       </c>
       <c r="I3">
-        <v>0.54796785899033</v>
+        <v>0.6561402835253665</v>
       </c>
       <c r="J3">
-        <v>0.4638809894457476</v>
+        <v>0.6173104109564377</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P3">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q3">
-        <v>18.082444683758</v>
+        <v>10.779738790016</v>
       </c>
       <c r="R3">
-        <v>108.494668102548</v>
+        <v>64.67843274009601</v>
       </c>
       <c r="S3">
-        <v>5.977982336723541E-05</v>
+        <v>9.374380779617423E-05</v>
       </c>
       <c r="T3">
-        <v>5.886203691005726E-05</v>
+        <v>0.0001067152910631576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>294.7519835</v>
+        <v>175.714592</v>
       </c>
       <c r="H4">
-        <v>589.503967</v>
+        <v>351.429184</v>
       </c>
       <c r="I4">
-        <v>0.54796785899033</v>
+        <v>0.6561402835253665</v>
       </c>
       <c r="J4">
-        <v>0.4638809894457476</v>
+        <v>0.6173104109564377</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N4">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O4">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P4">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q4">
-        <v>28625.01582704325</v>
+        <v>12598.72049065825</v>
       </c>
       <c r="R4">
-        <v>171750.0949622596</v>
+        <v>75592.3229439495</v>
       </c>
       <c r="S4">
-        <v>0.09463313285078069</v>
+        <v>0.1095622125137075</v>
       </c>
       <c r="T4">
-        <v>0.09318025121215091</v>
+        <v>0.1247225141883023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>294.7519835</v>
+        <v>175.714592</v>
       </c>
       <c r="H5">
-        <v>589.503967</v>
+        <v>351.429184</v>
       </c>
       <c r="I5">
-        <v>0.54796785899033</v>
+        <v>0.6561402835253665</v>
       </c>
       <c r="J5">
-        <v>0.4638809894457476</v>
+        <v>0.6173104109564377</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N5">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O5">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P5">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q5">
-        <v>444.6313038458655</v>
+        <v>578.223041464144</v>
       </c>
       <c r="R5">
-        <v>1778.525215383462</v>
+        <v>2312.892165856576</v>
       </c>
       <c r="S5">
-        <v>0.001469932925127324</v>
+        <v>0.005028399177217311</v>
       </c>
       <c r="T5">
-        <v>0.0009649102458603703</v>
+        <v>0.003816124637232749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>294.7519835</v>
+        <v>175.714592</v>
       </c>
       <c r="H6">
-        <v>589.503967</v>
+        <v>351.429184</v>
       </c>
       <c r="I6">
-        <v>0.54796785899033</v>
+        <v>0.6561402835253665</v>
       </c>
       <c r="J6">
-        <v>0.4638809894457476</v>
+        <v>0.6173104109564377</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N6">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O6">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P6">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q6">
-        <v>47055.12695988314</v>
+        <v>4851.014944309568</v>
       </c>
       <c r="R6">
-        <v>282330.7617592989</v>
+        <v>29106.08966585741</v>
       </c>
       <c r="S6">
-        <v>0.1555623272947874</v>
+        <v>0.04218586567022464</v>
       </c>
       <c r="T6">
-        <v>0.1531740131580728</v>
+        <v>0.048023192566891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>294.7519835</v>
+        <v>175.714592</v>
       </c>
       <c r="H7">
-        <v>589.503967</v>
+        <v>351.429184</v>
       </c>
       <c r="I7">
-        <v>0.54796785899033</v>
+        <v>0.6561402835253665</v>
       </c>
       <c r="J7">
-        <v>0.4638809894457476</v>
+        <v>0.6173104109564377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N7">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O7">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P7">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q7">
-        <v>20312.02777873424</v>
+        <v>18709.39410209027</v>
       </c>
       <c r="R7">
-        <v>121872.1666724054</v>
+        <v>112256.3646125416</v>
       </c>
       <c r="S7">
-        <v>0.06715073398973392</v>
+        <v>0.1627024438025945</v>
       </c>
       <c r="T7">
-        <v>0.06611978356576312</v>
+        <v>0.185215845774397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>84.53420800000001</v>
       </c>
       <c r="I8">
-        <v>0.05238531778385045</v>
+        <v>0.1052204383889232</v>
       </c>
       <c r="J8">
-        <v>0.06652001384929211</v>
+        <v>0.1484903618031819</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N8">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O8">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P8">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q8">
-        <v>6624.709636026711</v>
+        <v>6206.42314588208</v>
       </c>
       <c r="R8">
-        <v>39748.25781616027</v>
+        <v>37238.53887529248</v>
       </c>
       <c r="S8">
-        <v>0.02190101940456179</v>
+        <v>0.05397289765760949</v>
       </c>
       <c r="T8">
-        <v>0.02156477787898178</v>
+        <v>0.06144121535554773</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>84.53420800000001</v>
       </c>
       <c r="I9">
-        <v>0.05238531778385045</v>
+        <v>0.1052204383889232</v>
       </c>
       <c r="J9">
-        <v>0.06652001384929211</v>
+        <v>0.1484903618031819</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P9">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q9">
         <v>1.728668197461334</v>
@@ -1013,10 +1013,10 @@
         <v>15.558013777152</v>
       </c>
       <c r="S9">
-        <v>5.714906436164424E-06</v>
+        <v>1.503301169006654E-05</v>
       </c>
       <c r="T9">
-        <v>8.440750105178611E-06</v>
+        <v>2.566973097918217E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>84.53420800000001</v>
       </c>
       <c r="I10">
-        <v>0.05238531778385045</v>
+        <v>0.1052204383889232</v>
       </c>
       <c r="J10">
-        <v>0.06652001384929211</v>
+        <v>0.1484903618031819</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N10">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O10">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P10">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q10">
-        <v>2736.530119540957</v>
+        <v>2020.36504456645</v>
       </c>
       <c r="R10">
-        <v>24628.77107586861</v>
+        <v>18183.28540109805</v>
       </c>
       <c r="S10">
-        <v>0.009046856774417069</v>
+        <v>0.01756969404410449</v>
       </c>
       <c r="T10">
-        <v>0.01336194356340984</v>
+        <v>0.03000126180948279</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>84.53420800000001</v>
       </c>
       <c r="I11">
-        <v>0.05238531778385045</v>
+        <v>0.1052204383889232</v>
       </c>
       <c r="J11">
-        <v>0.06652001384929211</v>
+        <v>0.1484903618031819</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N11">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O11">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P11">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q11">
-        <v>42.50642034284801</v>
+        <v>92.72541777581867</v>
       </c>
       <c r="R11">
-        <v>255.038522057088</v>
+        <v>556.352506654912</v>
       </c>
       <c r="S11">
-        <v>0.0001405244890560243</v>
+        <v>0.0008063677526070556</v>
       </c>
       <c r="T11">
-        <v>0.0001383670475365803</v>
+        <v>0.0009179461710207815</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>84.53420800000001</v>
       </c>
       <c r="I12">
-        <v>0.05238531778385045</v>
+        <v>0.1052204383889232</v>
       </c>
       <c r="J12">
-        <v>0.06652001384929211</v>
+        <v>0.1484903618031819</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N12">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O12">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P12">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q12">
-        <v>4498.434969698482</v>
+        <v>777.9219351218774</v>
       </c>
       <c r="R12">
-        <v>40485.91472728633</v>
+        <v>7001.297416096895</v>
       </c>
       <c r="S12">
-        <v>0.01487164222651351</v>
+        <v>0.006765040024349694</v>
       </c>
       <c r="T12">
-        <v>0.02196498177000269</v>
+        <v>0.01155169443546731</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>84.53420800000001</v>
       </c>
       <c r="I13">
-        <v>0.05238531778385045</v>
+        <v>0.1052204383889232</v>
       </c>
       <c r="J13">
-        <v>0.06652001384929211</v>
+        <v>0.1484903618031819</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N13">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O13">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P13">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q13">
-        <v>1941.814675013938</v>
+        <v>3000.289265636843</v>
       </c>
       <c r="R13">
-        <v>17476.33207512544</v>
+        <v>27002.60339073159</v>
       </c>
       <c r="S13">
-        <v>0.006419559982865887</v>
+        <v>0.02609140589856236</v>
       </c>
       <c r="T13">
-        <v>0.009481502839256046</v>
+        <v>0.04455257430068414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.380087333333333</v>
+        <v>1.140307333333333</v>
       </c>
       <c r="H14">
-        <v>4.140262</v>
+        <v>3.420922</v>
       </c>
       <c r="I14">
-        <v>0.002565694358648278</v>
+        <v>0.004258050333118537</v>
       </c>
       <c r="J14">
-        <v>0.003257974399898533</v>
+        <v>0.006009093330364728</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N14">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O14">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P14">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q14">
-        <v>324.4607622877974</v>
+        <v>251.160920334845</v>
       </c>
       <c r="R14">
-        <v>1946.764573726784</v>
+        <v>1506.96552200907</v>
       </c>
       <c r="S14">
-        <v>0.00107265402429712</v>
+        <v>0.002184169904338191</v>
       </c>
       <c r="T14">
-        <v>0.001056185803394394</v>
+        <v>0.002486397049068361</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.380087333333333</v>
+        <v>1.140307333333333</v>
       </c>
       <c r="H15">
-        <v>4.140262</v>
+        <v>3.420922</v>
       </c>
       <c r="I15">
-        <v>0.002565694358648278</v>
+        <v>0.004258050333118537</v>
       </c>
       <c r="J15">
-        <v>0.003257974399898533</v>
+        <v>0.006009093330364728</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P15">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q15">
-        <v>0.08466559772533333</v>
+        <v>0.06995557428533335</v>
       </c>
       <c r="R15">
-        <v>0.7619903795280001</v>
+        <v>0.6296001685680001</v>
       </c>
       <c r="S15">
-        <v>2.799010070716813E-07</v>
+        <v>6.083544358374516E-07</v>
       </c>
       <c r="T15">
-        <v>4.134056228688745E-07</v>
+        <v>1.038800143969715E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.380087333333333</v>
+        <v>1.140307333333333</v>
       </c>
       <c r="H16">
-        <v>4.140262</v>
+        <v>3.420922</v>
       </c>
       <c r="I16">
-        <v>0.002565694358648278</v>
+        <v>0.004258050333118537</v>
       </c>
       <c r="J16">
-        <v>0.003257974399898533</v>
+        <v>0.006009093330364728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N16">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O16">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P16">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q16">
-        <v>134.0280098890958</v>
+        <v>81.75993355244245</v>
       </c>
       <c r="R16">
-        <v>1206.252089001862</v>
+        <v>735.8394019719819</v>
       </c>
       <c r="S16">
-        <v>0.0004430911249864854</v>
+        <v>0.0007110086473956912</v>
       </c>
       <c r="T16">
-        <v>0.0006544326668528125</v>
+        <v>0.00121408810681493</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.380087333333333</v>
+        <v>1.140307333333333</v>
       </c>
       <c r="H17">
-        <v>4.140262</v>
+        <v>3.420922</v>
       </c>
       <c r="I17">
-        <v>0.002565694358648278</v>
+        <v>0.004258050333118537</v>
       </c>
       <c r="J17">
-        <v>0.003257974399898533</v>
+        <v>0.006009093330364728</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N17">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O17">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P17">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q17">
-        <v>2.081852081722</v>
+        <v>3.752403070109667</v>
       </c>
       <c r="R17">
-        <v>12.491112490332</v>
+        <v>22.514418420658</v>
       </c>
       <c r="S17">
-        <v>6.882517928222303E-06</v>
+        <v>3.263201075928969E-05</v>
       </c>
       <c r="T17">
-        <v>6.77685214685985E-06</v>
+        <v>3.714735520158601E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.380087333333333</v>
+        <v>1.140307333333333</v>
       </c>
       <c r="H18">
-        <v>4.140262</v>
+        <v>3.420922</v>
       </c>
       <c r="I18">
-        <v>0.002565694358648278</v>
+        <v>0.004258050333118537</v>
       </c>
       <c r="J18">
-        <v>0.003257974399898533</v>
+        <v>0.006009093330364728</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N18">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O18">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P18">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q18">
-        <v>220.3214509860171</v>
+        <v>31.48086822012933</v>
       </c>
       <c r="R18">
-        <v>1982.893058874154</v>
+        <v>283.327813981164</v>
       </c>
       <c r="S18">
-        <v>0.0007283737157391865</v>
+        <v>0.0002737669731309058</v>
       </c>
       <c r="T18">
-        <v>0.001075786731840379</v>
+        <v>0.0004674728322002816</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.380087333333333</v>
+        <v>1.140307333333333</v>
       </c>
       <c r="H19">
-        <v>4.140262</v>
+        <v>3.420922</v>
       </c>
       <c r="I19">
-        <v>0.002565694358648278</v>
+        <v>0.004258050333118537</v>
       </c>
       <c r="J19">
-        <v>0.003257974399898533</v>
+        <v>0.006009093330364728</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N19">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O19">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P19">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q19">
-        <v>95.10494863810109</v>
+        <v>121.4154103766007</v>
       </c>
       <c r="R19">
-        <v>855.94453774291</v>
+        <v>1092.738693389406</v>
       </c>
       <c r="S19">
-        <v>0.0003144130746901926</v>
+        <v>0.001055864443058622</v>
       </c>
       <c r="T19">
-        <v>0.0004643789400412186</v>
+        <v>0.001802949186935601</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>48.1397765</v>
+        <v>58.3955575</v>
       </c>
       <c r="H20">
-        <v>96.27955299999999</v>
+        <v>116.791115</v>
       </c>
       <c r="I20">
-        <v>0.08949575147126364</v>
+        <v>0.2180563220080882</v>
       </c>
       <c r="J20">
-        <v>0.07576243216194387</v>
+        <v>0.2051519181648573</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N20">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O20">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P20">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q20">
-        <v>11317.73924902883</v>
+        <v>12862.04300931126</v>
       </c>
       <c r="R20">
-        <v>45270.9569961153</v>
+        <v>51448.17203724503</v>
       </c>
       <c r="S20">
-        <v>0.03741598357168382</v>
+        <v>0.1118521432864155</v>
       </c>
       <c r="T20">
-        <v>0.02456102947971848</v>
+        <v>0.08488620427282575</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>48.1397765</v>
+        <v>58.3955575</v>
       </c>
       <c r="H21">
-        <v>96.27955299999999</v>
+        <v>116.791115</v>
       </c>
       <c r="I21">
-        <v>0.08949575147126364</v>
+        <v>0.2180563220080882</v>
       </c>
       <c r="J21">
-        <v>0.07576243216194387</v>
+        <v>0.2051519181648573</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.184044</v>
       </c>
       <c r="O21">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P21">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q21">
-        <v>2.953279008722</v>
+        <v>3.582450661510001</v>
       </c>
       <c r="R21">
-        <v>17.719674052332</v>
+        <v>21.49470396906</v>
       </c>
       <c r="S21">
-        <v>9.763419746785828E-06</v>
+        <v>3.115405417456987E-05</v>
       </c>
       <c r="T21">
-        <v>9.613524114537151E-06</v>
+        <v>3.54648913586406E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>48.1397765</v>
+        <v>58.3955575</v>
       </c>
       <c r="H22">
-        <v>96.27955299999999</v>
+        <v>116.791115</v>
       </c>
       <c r="I22">
-        <v>0.08949575147126364</v>
+        <v>0.2180563220080882</v>
       </c>
       <c r="J22">
-        <v>0.07576243216194387</v>
+        <v>0.2051519181648573</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N22">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O22">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P22">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q22">
-        <v>4675.123294709992</v>
+        <v>4186.956236615011</v>
       </c>
       <c r="R22">
-        <v>28050.73976825995</v>
+        <v>25121.73741969006</v>
       </c>
       <c r="S22">
-        <v>0.0154557666104099</v>
+        <v>0.03641101406462262</v>
       </c>
       <c r="T22">
-        <v>0.01521847763092932</v>
+        <v>0.04144926534517733</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>48.1397765</v>
+        <v>58.3955575</v>
       </c>
       <c r="H23">
-        <v>96.27955299999999</v>
+        <v>116.791115</v>
       </c>
       <c r="I23">
-        <v>0.08949575147126364</v>
+        <v>0.2180563220080882</v>
       </c>
       <c r="J23">
-        <v>0.07576243216194387</v>
+        <v>0.2051519181648573</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N23">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O23">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P23">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q23">
-        <v>72.61851587181449</v>
+        <v>192.1619398896837</v>
       </c>
       <c r="R23">
-        <v>290.474063487258</v>
+        <v>768.6477595587349</v>
       </c>
       <c r="S23">
-        <v>0.000240073846646805</v>
+        <v>0.001671097260301217</v>
       </c>
       <c r="T23">
-        <v>0.0001575920305156429</v>
+        <v>0.001268219805448438</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>48.1397765</v>
+        <v>58.3955575</v>
       </c>
       <c r="H24">
-        <v>96.27955299999999</v>
+        <v>116.791115</v>
       </c>
       <c r="I24">
-        <v>0.08949575147126364</v>
+        <v>0.2180563220080882</v>
       </c>
       <c r="J24">
-        <v>0.07576243216194387</v>
+        <v>0.2051519181648573</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N24">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O24">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P24">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q24">
-        <v>7685.184228888824</v>
+        <v>1612.146827929855</v>
       </c>
       <c r="R24">
-        <v>46111.10537333295</v>
+        <v>9672.880967579129</v>
       </c>
       <c r="S24">
-        <v>0.02540690508293362</v>
+        <v>0.0140197072786811</v>
       </c>
       <c r="T24">
-        <v>0.02501683846696721</v>
+        <v>0.0159596369940264</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>48.1397765</v>
+        <v>58.3955575</v>
       </c>
       <c r="H25">
-        <v>96.27955299999999</v>
+        <v>116.791115</v>
       </c>
       <c r="I25">
-        <v>0.08949575147126364</v>
+        <v>0.2180563220080882</v>
       </c>
       <c r="J25">
-        <v>0.07576243216194387</v>
+        <v>0.2051519181648573</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N25">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O25">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P25">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q25">
-        <v>3317.421195674694</v>
+        <v>6217.727774587858</v>
       </c>
       <c r="R25">
-        <v>19904.52717404816</v>
+        <v>37306.36664752715</v>
       </c>
       <c r="S25">
-        <v>0.0109672589398427</v>
+        <v>0.05407120606389323</v>
       </c>
       <c r="T25">
-        <v>0.01079888102969868</v>
+        <v>0.06155312685602077</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>163.7857413333334</v>
+        <v>3.533592333333333</v>
       </c>
       <c r="H26">
-        <v>491.3572240000001</v>
+        <v>10.600777</v>
       </c>
       <c r="I26">
-        <v>0.3044909857631906</v>
+        <v>0.01319487612876451</v>
       </c>
       <c r="J26">
-        <v>0.3866492644661642</v>
+        <v>0.01862102040542983</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N26">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O26">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P26">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q26">
-        <v>38506.29246522467</v>
+        <v>778.2992151193325</v>
       </c>
       <c r="R26">
-        <v>231037.754791348</v>
+        <v>4669.795290715995</v>
       </c>
       <c r="S26">
-        <v>0.1273002297176028</v>
+        <v>0.006768320963179078</v>
       </c>
       <c r="T26">
-        <v>0.125345817338149</v>
+        <v>0.007704864551320304</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>163.7857413333334</v>
+        <v>3.533592333333333</v>
       </c>
       <c r="H27">
-        <v>491.3572240000001</v>
+        <v>10.600777</v>
       </c>
       <c r="I27">
-        <v>0.3044909857631906</v>
+        <v>0.01319487612876451</v>
       </c>
       <c r="J27">
-        <v>0.3866492644661642</v>
+        <v>0.01862102040542983</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.184044</v>
       </c>
       <c r="O27">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P27">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q27">
-        <v>10.04792765931734</v>
+        <v>0.2167788224653334</v>
       </c>
       <c r="R27">
-        <v>90.43134893385603</v>
+        <v>1.951009402188</v>
       </c>
       <c r="S27">
-        <v>3.321803833417928E-05</v>
+        <v>1.885172977131204E-06</v>
       </c>
       <c r="T27">
-        <v>4.906207366558956E-05</v>
+        <v>3.219041145571528E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>163.7857413333334</v>
+        <v>3.533592333333333</v>
       </c>
       <c r="H28">
-        <v>491.3572240000001</v>
+        <v>10.600777</v>
       </c>
       <c r="I28">
-        <v>0.3044909857631906</v>
+        <v>0.01319487612876451</v>
       </c>
       <c r="J28">
-        <v>0.3866492644661642</v>
+        <v>0.01862102040542983</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N28">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O28">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P28">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q28">
-        <v>15906.15059562671</v>
+        <v>253.3582534545541</v>
       </c>
       <c r="R28">
-        <v>143155.3553606404</v>
+        <v>2280.224281090987</v>
       </c>
       <c r="S28">
-        <v>0.05258508402424691</v>
+        <v>0.002203278565285427</v>
       </c>
       <c r="T28">
-        <v>0.07766663522253298</v>
+        <v>0.003762224709799653</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>163.7857413333334</v>
+        <v>3.533592333333333</v>
       </c>
       <c r="H29">
-        <v>491.3572240000001</v>
+        <v>10.600777</v>
       </c>
       <c r="I29">
-        <v>0.3044909857631906</v>
+        <v>0.01319487612876451</v>
       </c>
       <c r="J29">
-        <v>0.3866492644661642</v>
+        <v>0.01862102040542983</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N29">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O29">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P29">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q29">
-        <v>247.0696443011441</v>
+        <v>11.62797285654217</v>
       </c>
       <c r="R29">
-        <v>1482.417865806864</v>
+        <v>69.767837139253</v>
       </c>
       <c r="S29">
-        <v>0.0008168021500430512</v>
+        <v>0.000101120302982889</v>
       </c>
       <c r="T29">
-        <v>0.0008042619665952292</v>
+        <v>0.0001151124838952199</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>163.7857413333334</v>
+        <v>3.533592333333333</v>
       </c>
       <c r="H30">
-        <v>491.3572240000001</v>
+        <v>10.600777</v>
       </c>
       <c r="I30">
-        <v>0.3044909857631906</v>
+        <v>0.01319487612876451</v>
       </c>
       <c r="J30">
-        <v>0.3866492644661642</v>
+        <v>0.01862102040542983</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N30">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O30">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P30">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q30">
-        <v>26147.26714013302</v>
+        <v>97.55313443801933</v>
       </c>
       <c r="R30">
-        <v>235325.4042611972</v>
+        <v>877.978209942174</v>
       </c>
       <c r="S30">
-        <v>0.08644179692013981</v>
+        <v>0.0008483510095014514</v>
       </c>
       <c r="T30">
-        <v>0.1276720125859478</v>
+        <v>0.001448608079258634</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>163.7857413333334</v>
+        <v>3.533592333333333</v>
       </c>
       <c r="H31">
-        <v>491.3572240000001</v>
+        <v>10.600777</v>
       </c>
       <c r="I31">
-        <v>0.3044909857631906</v>
+        <v>0.01319487612876451</v>
       </c>
       <c r="J31">
-        <v>0.3866492644661642</v>
+        <v>0.01862102040542983</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N31">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O31">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P31">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q31">
-        <v>11286.84695593659</v>
+        <v>376.2429221612857</v>
       </c>
       <c r="R31">
-        <v>101581.6226034293</v>
+        <v>3386.186299451571</v>
       </c>
       <c r="S31">
-        <v>0.03731385491282381</v>
+        <v>0.00327192011483853</v>
       </c>
       <c r="T31">
-        <v>0.05511147527927356</v>
+        <v>0.005586991540010448</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.664473666666667</v>
+        <v>0.8382229999999998</v>
       </c>
       <c r="H32">
-        <v>4.993421</v>
+        <v>2.514669</v>
       </c>
       <c r="I32">
-        <v>0.003094391632716926</v>
+        <v>0.003130029615738932</v>
       </c>
       <c r="J32">
-        <v>0.003929325676953714</v>
+        <v>0.00441719533972857</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N32">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O32">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P32">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q32">
-        <v>391.3204488227787</v>
+        <v>184.6246656245025</v>
       </c>
       <c r="R32">
-        <v>2347.922692936672</v>
+        <v>1107.747993747015</v>
       </c>
       <c r="S32">
-        <v>0.001293689416433006</v>
+        <v>0.001605550886331876</v>
       </c>
       <c r="T32">
-        <v>0.001273827687854402</v>
+        <v>0.001827713575750539</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.664473666666667</v>
+        <v>0.8382229999999998</v>
       </c>
       <c r="H33">
-        <v>4.993421</v>
+        <v>2.514669</v>
       </c>
       <c r="I33">
-        <v>0.003094391632716926</v>
+        <v>0.003130029615738932</v>
       </c>
       <c r="J33">
-        <v>0.003929325676953714</v>
+        <v>0.00441719533972857</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.184044</v>
       </c>
       <c r="O33">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P33">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q33">
-        <v>0.1021121305026667</v>
+        <v>0.05142330460399999</v>
       </c>
       <c r="R33">
-        <v>0.919009174524</v>
+        <v>0.462809741436</v>
       </c>
       <c r="S33">
-        <v>3.375785316564223E-07</v>
+        <v>4.47192318565851E-07</v>
       </c>
       <c r="T33">
-        <v>4.985936442552472E-07</v>
+        <v>7.636065713384224E-07</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.664473666666667</v>
+        <v>0.8382229999999998</v>
       </c>
       <c r="H34">
-        <v>4.993421</v>
+        <v>2.514669</v>
       </c>
       <c r="I34">
-        <v>0.003094391632716926</v>
+        <v>0.003130029615738932</v>
       </c>
       <c r="J34">
-        <v>0.003929325676953714</v>
+        <v>0.00441719533972857</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N34">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O34">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P34">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q34">
-        <v>161.6463593773579</v>
+        <v>60.10051393933766</v>
       </c>
       <c r="R34">
-        <v>1454.817234396221</v>
+        <v>540.9046254540389</v>
       </c>
       <c r="S34">
-        <v>0.0005343962600485528</v>
+        <v>0.000522651906222321</v>
       </c>
       <c r="T34">
-        <v>0.0007892876880131833</v>
+        <v>0.0008924581517720052</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.664473666666667</v>
+        <v>0.8382229999999998</v>
       </c>
       <c r="H35">
-        <v>4.993421</v>
+        <v>2.514669</v>
       </c>
       <c r="I35">
-        <v>0.003094391632716926</v>
+        <v>0.003130029615738932</v>
       </c>
       <c r="J35">
-        <v>0.003929325676953714</v>
+        <v>0.00441719533972857</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N35">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O35">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P35">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q35">
-        <v>2.510846874851</v>
+        <v>2.758335815873499</v>
       </c>
       <c r="R35">
-        <v>15.065081249106</v>
+        <v>16.550014895241</v>
       </c>
       <c r="S35">
-        <v>8.300757187748443E-06</v>
+        <v>2.398730689096455E-05</v>
       </c>
       <c r="T35">
-        <v>8.173317491507798E-06</v>
+        <v>2.730646958843759E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.664473666666667</v>
+        <v>0.8382229999999998</v>
       </c>
       <c r="H36">
-        <v>4.993421</v>
+        <v>2.514669</v>
       </c>
       <c r="I36">
-        <v>0.003094391632716926</v>
+        <v>0.003130029615738932</v>
       </c>
       <c r="J36">
-        <v>0.003929325676953714</v>
+        <v>0.00441719533972857</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N36">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O36">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P36">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q36">
-        <v>265.7217731882785</v>
+        <v>23.14111909194199</v>
       </c>
       <c r="R36">
-        <v>2391.495958694506</v>
+        <v>208.2700718274779</v>
       </c>
       <c r="S36">
-        <v>0.0008784653261122327</v>
+        <v>0.0002012420395893626</v>
       </c>
       <c r="T36">
-        <v>0.001297467662262224</v>
+        <v>0.0003436323422388028</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.664473666666667</v>
+        <v>0.8382229999999998</v>
       </c>
       <c r="H37">
-        <v>4.993421</v>
+        <v>2.514669</v>
       </c>
       <c r="I37">
-        <v>0.003094391632716926</v>
+        <v>0.003130029615738932</v>
       </c>
       <c r="J37">
-        <v>0.003929325676953714</v>
+        <v>0.00441719533972857</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N37">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O37">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P37">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q37">
-        <v>114.7026559511006</v>
+        <v>89.250666515143</v>
       </c>
       <c r="R37">
-        <v>1032.323903559905</v>
+        <v>803.2559986362869</v>
       </c>
       <c r="S37">
-        <v>0.0003792022944037301</v>
+        <v>0.0007761502843858417</v>
       </c>
       <c r="T37">
-        <v>0.000560070727688142</v>
+        <v>0.001325321193807447</v>
       </c>
     </row>
   </sheetData>
